--- a/docs/CasosPrueba - Estadística/CP - MediaGeo.xlsx
+++ b/docs/CasosPrueba - Estadística/CP - MediaGeo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cc5a38752f2b5bf/Ingeniería/Cuarto/Primer Cuatrimestre/Validación y Pruebas/Prácticas/Práctica 2/TDD-ACB-JGA/docs/CasosPrueba - Estadística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B385CC0-F727-440B-89E2-973201E2A0BC}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A496634-A169-4F56-94BC-3576A1D2A4F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
   <sheets>
     <sheet name="CP-001" sheetId="12" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Ausencia de errores en tiempo de ejecución.</t>
   </si>
   <si>
-    <t>El método inicia el procedimiento de ejecución del cálculo de la media aritmética.</t>
-  </si>
-  <si>
     <t>Ausencia de mensaje de error</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Devuelve Verdadero.</t>
   </si>
   <si>
-    <t>El método devuelve la media aritmética</t>
-  </si>
-  <si>
     <t>Devuelve verdadero</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>CP-MGEO-004</t>
+  </si>
+  <si>
+    <t>El método inicia el procedimiento de ejecución del cálculo de la media geométrica.</t>
+  </si>
+  <si>
+    <t>El método devuelve la media geométrica.</t>
   </si>
 </sst>
 </file>
@@ -290,24 +290,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -320,8 +302,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +467,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -769,139 +773,139 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="C11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,95 +913,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1008,6 +1012,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C21"/>
@@ -1017,16 +1030,7 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -1048,139 +1052,139 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="C11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1188,95 +1192,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1287,6 +1291,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1297,15 +1310,6 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -1330,136 +1334,136 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="C11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1467,95 +1471,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="C18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1566,6 +1570,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1576,15 +1589,6 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1606,150 +1610,150 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1757,121 +1761,121 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="12"/>
+      <c r="C18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="C21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1882,28 +1886,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:F24"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/docs/CasosPrueba - Estadística/CP - MediaGeo.xlsx
+++ b/docs/CasosPrueba - Estadística/CP - MediaGeo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cc5a38752f2b5bf/Ingeniería/Cuarto/Primer Cuatrimestre/Validación y Pruebas/Prácticas/Práctica 2/TDD-ACB-JGA/docs/CasosPrueba - Estadística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A496634-A169-4F56-94BC-3576A1D2A4F3}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D75FFA-C03E-4672-A78C-378B50DDF061}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>Nombre Proyecto:</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>El método devuelve la media geométrica.</t>
+  </si>
+  <si>
+    <t>RF-011</t>
   </si>
 </sst>
 </file>
@@ -290,6 +293,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -302,29 +320,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +776,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,10 +789,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
@@ -801,10 +804,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
@@ -814,98 +817,100 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -917,10 +922,10 @@
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -928,10 +933,10 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
@@ -940,68 +945,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1012,15 +1017,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C21"/>
@@ -1031,6 +1027,15 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -1052,7 +1057,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,10 +1070,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1080,10 +1085,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1093,98 +1098,100 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1196,10 +1203,10 @@
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -1207,10 +1214,10 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1219,68 +1226,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1291,15 +1298,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1310,6 +1308,15 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -1331,7 +1338,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,10 +1351,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1359,10 +1366,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1372,98 +1379,100 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1475,10 +1484,10 @@
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -1486,10 +1495,10 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1498,68 +1507,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1570,15 +1579,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1589,6 +1589,15 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1610,7 +1619,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F21"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,10 +1632,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1638,10 +1647,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1651,109 +1660,111 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1765,10 +1776,10 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
@@ -1776,10 +1787,10 @@
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
@@ -1787,10 +1798,10 @@
       <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
@@ -1802,10 +1813,10 @@
       <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="7" t="s">
         <v>38</v>
       </c>
@@ -1814,68 +1825,68 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1886,28 +1897,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:F24"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
